--- a/StructureDefinition-onconova-lifestyle.xlsx
+++ b/StructureDefinition-onconova-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:38:38+00:00</t>
+    <t>2025-10-15T14:58:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-lifestyle.xlsx
+++ b/StructureDefinition-onconova-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:58:32+00:00</t>
+    <t>2025-10-15T15:04:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-lifestyle.xlsx
+++ b/StructureDefinition-onconova-lifestyle.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:04:18+00:00</t>
+    <t>2025-10-17T13:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -277,7 +277,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}o-lif-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-lif-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -709,7 +709,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.1.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
 </t>
   </si>
   <si>
@@ -789,8 +789,8 @@
 </t>
   </si>
   <si>
-    <t>dateTime
-PeriodTiminginstant</t>
+    <t xml:space="preserve">dateTime
+</t>
   </si>
   <si>
     <t>(USCDI) Clinically relevant time/time-period for observation</t>
@@ -1432,7 +1432,7 @@
     <t>Observation.component:smokingStatus.value[x]</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-smoking-status|0.1.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-smoking-status|0.2.0</t>
   </si>
   <si>
     <t>Observation.component:smokingStatus.dataAbsentReason</t>
@@ -1802,7 +1802,7 @@
     <t>Observation.component:recreationalDrug.value[x]</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-recreational-drugs|0.1.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-recreational-drugs|0.2.0</t>
   </si>
   <si>
     <t>Observation.component:recreationalDrug.dataAbsentReason</t>
@@ -1844,7 +1844,7 @@
     <t>Observation.component:exposures.value[x]</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-exposure-agents|0.1.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-exposure-agents|0.2.0</t>
   </si>
   <si>
     <t>Observation.component:exposures.dataAbsentReason</t>

--- a/StructureDefinition-onconova-lifestyle.xlsx
+++ b/StructureDefinition-onconova-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:44:17+00:00</t>
+    <t>2025-11-07T05:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-lifestyle.xlsx
+++ b/StructureDefinition-onconova-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T05:59:36+00:00</t>
+    <t>2025-11-11T12:30:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-lifestyle.xlsx
+++ b/StructureDefinition-onconova-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:30:26+00:00</t>
+    <t>2025-11-11T12:47:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-lifestyle.xlsx
+++ b/StructureDefinition-onconova-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:47:38+00:00</t>
+    <t>2025-11-18T09:06:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-lifestyle.xlsx
+++ b/StructureDefinition-onconova-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:06:42+00:00</t>
+    <t>2025-11-19T13:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-lifestyle.xlsx
+++ b/StructureDefinition-onconova-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T13:56:54+00:00</t>
+    <t>2025-11-19T14:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-lifestyle.xlsx
+++ b/StructureDefinition-onconova-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T14:47:01+00:00</t>
+    <t>2025-11-21T06:40:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-lifestyle.xlsx
+++ b/StructureDefinition-onconova-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T06:40:28+00:00</t>
+    <t>2025-11-21T12:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-lifestyle.xlsx
+++ b/StructureDefinition-onconova-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T12:46:13+00:00</t>
+    <t>2025-11-21T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-lifestyle.xlsx
+++ b/StructureDefinition-onconova-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T14:06:51+00:00</t>
+    <t>2025-11-22T09:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-lifestyle.xlsx
+++ b/StructureDefinition-onconova-lifestyle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4739" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4739" uniqueCount="572">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:54:31+00:00</t>
+    <t>2025-11-22T09:58:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -85,7 +85,9 @@
   </si>
   <si>
     <t xml:space="preserve">A profile representing a (reported) observation on certain lifestyle characteristics of a cancer patient (e.g. smoking, drinking, and sleeping habits, environmental exposures, etc.). 
-It directly profiles the base FHIR `Observation` resource as this resource is not represented in mCODE, to add relevant observation components for the different lifestyle characteristics. </t>
+It directly profiles the base FHIR `Observation` resource as this resource is not represented in mCODE, to add relevant observation components for the different lifestyle characteristics. 
+**Conformance:**
+Observation resources representing a summary of a patient's lifestyle in the scope of Onconova SHALL conform to this profile. Any resource intended to conform to this profile SHOULD populate `meta.profile` accordingly. </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -115,7 +117,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-simple-observation|6.1.0</t>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-simple-observation</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -378,7 +380,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -514,7 +516,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
 </t>
   </si>
   <si>
@@ -543,7 +545,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
+    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
 </t>
   </si>
   <si>
@@ -568,19 +570,13 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>(USCDI) registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
+    <t>Not used in this profile</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
     <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>final</t>
   </si>
   <si>
     <t>required</t>
@@ -629,7 +625,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
     <t xml:space="preserve">pattern:$this}
@@ -654,7 +650,7 @@
     <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-simple-observation-category|6.1.0</t>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-simple-observation-category</t>
   </si>
   <si>
     <t>Observation.code</t>
@@ -685,7 +681,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -709,7 +705,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient)
 </t>
   </si>
   <si>
@@ -740,11 +736,8 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource|4.0.1)
+    <t xml:space="preserve">Reference(Resource)
 </t>
-  </si>
-  <si>
-    <t>Not used in this profile</t>
   </si>
   <si>
     <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/R4/extension-observation-focuscode.html).</t>
@@ -760,7 +753,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|4.0.1)
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -839,7 +832,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|6.1.0|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|6.1.0|http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|6.1.0|PractitionerRole|4.0.1|http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam|6.1.0|http://hl7.org/fhir/us/core/StructureDefinition/us-core-relatedperson|6.1.0)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|PractitionerRole|http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam|http://hl7.org/fhir/us/core/StructureDefinition/us-core-relatedperson)
 </t>
   </si>
   <si>
@@ -915,7 +908,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -941,7 +934,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -994,7 +987,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1027,7 +1020,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1039,7 +1032,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen|4.0.1)
+    <t xml:space="preserve">Reference(Specimen)
 </t>
   </si>
   <si>
@@ -1061,7 +1054,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
+    <t xml:space="preserve">Reference(Device|DeviceMetric)
 </t>
   </si>
   <si>
@@ -1151,7 +1144,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -1201,7 +1194,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1234,7 +1227,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1271,7 +1264,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1)
+    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
 </t>
   </si>
   <si>
@@ -1287,7 +1280,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|4.0.1|http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|6.1.0|http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse|6.1.0|ImagingStudy|4.0.1|Media|4.0.1|MolecularSequence|4.0.1)
+    <t xml:space="preserve">Reference(Observation|http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse|ImagingStudy|Media|MolecularSequence)
 </t>
   </si>
   <si>
@@ -1432,7 +1425,7 @@
     <t>Observation.component:smokingStatus.value[x]</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-smoking-status|0.2.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-smoking-status</t>
   </si>
   <si>
     <t>Observation.component:smokingStatus.dataAbsentReason</t>
@@ -1679,7 +1672,7 @@
     <t>Observation.component:smokingQuited.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/units-of-time|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/units-of-time</t>
   </si>
   <si>
     <t>Observation.component:smokingQuited.dataAbsentReason</t>
@@ -1802,7 +1795,7 @@
     <t>Observation.component:recreationalDrug.value[x]</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-recreational-drugs|0.2.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-recreational-drugs</t>
   </si>
   <si>
     <t>Observation.component:recreationalDrug.dataAbsentReason</t>
@@ -1844,7 +1837,7 @@
     <t>Observation.component:exposures.value[x]</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-exposure-agents|0.2.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-exposure-agents</t>
   </si>
   <si>
     <t>Observation.component:exposures.dataAbsentReason</t>
@@ -2207,7 +2200,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="150.18359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="62.28125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.75390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -3827,13 +3820,13 @@
         <v>176</v>
       </c>
       <c r="M14" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>20</v>
@@ -3843,28 +3836,28 @@
         <v>20</v>
       </c>
       <c r="S14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="T14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>20</v>
@@ -3897,19 +3890,19 @@
         <v>103</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AO14" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>20</v>
@@ -3917,10 +3910,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3943,19 +3936,19 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -3983,26 +3976,26 @@
         <v>115</v>
       </c>
       <c r="Y15" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB15" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -4026,10 +4019,10 @@
         <v>20</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>20</v>
@@ -4037,13 +4030,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>20</v>
@@ -4065,19 +4058,19 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>20</v>
@@ -4102,13 +4095,13 @@
         <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>20</v>
@@ -4126,7 +4119,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4150,10 +4143,10 @@
         <v>20</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>20</v>
@@ -4161,14 +4154,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4187,19 +4180,19 @@
         <v>92</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>20</v>
@@ -4209,7 +4202,7 @@
         <v>20</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>20</v>
@@ -4228,7 +4221,7 @@
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>20</v>
@@ -4246,7 +4239,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>91</v>
@@ -4261,30 +4254,30 @@
         <v>103</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AP17" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AP17" t="s" s="2">
-        <v>218</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4307,19 +4300,19 @@
         <v>92</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>20</v>
@@ -4368,7 +4361,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4383,19 +4376,19 @@
         <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AL18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>20</v>
@@ -4403,10 +4396,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4429,16 +4422,16 @@
         <v>92</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4488,7 +4481,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4509,13 +4502,13 @@
         <v>20</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>20</v>
@@ -4523,14 +4516,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4549,19 +4542,19 @@
         <v>92</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -4610,7 +4603,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4625,19 +4618,19 @@
         <v>103</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AO20" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>20</v>
@@ -4645,14 +4638,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4671,19 +4664,19 @@
         <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -4732,7 +4725,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4747,19 +4740,19 @@
         <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AO21" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>20</v>
@@ -4767,10 +4760,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4793,16 +4786,16 @@
         <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4852,7 +4845,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4873,13 +4866,13 @@
         <v>20</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>20</v>
@@ -4887,10 +4880,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4913,17 +4906,17 @@
         <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -4972,7 +4965,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4987,19 +4980,19 @@
         <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AO23" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>20</v>
@@ -5007,10 +5000,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5033,19 +5026,19 @@
         <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -5094,7 +5087,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5103,7 +5096,7 @@
         <v>91</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>103</v>
@@ -5112,27 +5105,27 @@
         <v>20</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AO24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP24" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP24" t="s" s="2">
-        <v>277</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5155,19 +5148,19 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -5192,13 +5185,13 @@
         <v>20</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>20</v>
@@ -5216,7 +5209,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5225,7 +5218,7 @@
         <v>91</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>103</v>
@@ -5240,7 +5233,7 @@
         <v>134</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>20</v>
@@ -5251,14 +5244,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5277,19 +5270,19 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -5314,13 +5307,13 @@
         <v>20</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>20</v>
@@ -5338,7 +5331,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5356,27 +5349,27 @@
         <v>20</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AO26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP26" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP26" t="s" s="2">
-        <v>297</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5399,19 +5392,19 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -5460,7 +5453,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5481,10 +5474,10 @@
         <v>20</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>20</v>
@@ -5495,10 +5488,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5521,16 +5514,16 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5556,13 +5549,13 @@
         <v>20</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
@@ -5580,7 +5573,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5598,27 +5591,27 @@
         <v>20</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AO28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP28" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>314</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5641,19 +5634,19 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="O29" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -5678,13 +5671,13 @@
         <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -5702,7 +5695,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5723,10 +5716,10 @@
         <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>20</v>
@@ -5737,10 +5730,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5763,16 +5756,16 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5822,7 +5815,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5840,27 +5833,27 @@
         <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AO30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP30" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP30" t="s" s="2">
-        <v>330</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5883,16 +5876,16 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5942,7 +5935,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5960,27 +5953,27 @@
         <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AO31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP31" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>337</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6003,19 +5996,19 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -6064,7 +6057,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6076,7 +6069,7 @@
         <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>20</v>
@@ -6085,10 +6078,10 @@
         <v>20</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>20</v>
@@ -6099,10 +6092,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6125,13 +6118,13 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6182,7 +6175,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6206,7 +6199,7 @@
         <v>20</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
@@ -6217,10 +6210,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6249,7 +6242,7 @@
         <v>138</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>140</v>
@@ -6302,7 +6295,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6326,7 +6319,7 @@
         <v>20</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>20</v>
@@ -6337,14 +6330,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6366,10 +6359,10 @@
         <v>137</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>140</v>
@@ -6424,7 +6417,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6459,10 +6452,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6485,13 +6478,13 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6542,7 +6535,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6551,7 +6544,7 @@
         <v>91</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>103</v>
@@ -6563,10 +6556,10 @@
         <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>20</v>
@@ -6577,10 +6570,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6603,13 +6596,13 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6660,7 +6653,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6669,7 +6662,7 @@
         <v>91</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>103</v>
@@ -6681,10 +6674,10 @@
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>20</v>
@@ -6695,10 +6688,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6721,19 +6714,19 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="O38" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6761,10 +6754,10 @@
         <v>115</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>20</v>
@@ -6782,7 +6775,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6800,13 +6793,13 @@
         <v>20</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>20</v>
@@ -6817,10 +6810,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6843,19 +6836,19 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="O39" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -6880,13 +6873,13 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -6904,7 +6897,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6922,13 +6915,13 @@
         <v>20</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>20</v>
@@ -6939,10 +6932,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6965,17 +6958,17 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -7024,7 +7017,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -7048,7 +7041,7 @@
         <v>20</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>20</v>
@@ -7059,10 +7052,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7085,13 +7078,13 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7142,7 +7135,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7163,10 +7156,10 @@
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>20</v>
@@ -7177,10 +7170,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7203,16 +7196,16 @@
         <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7262,7 +7255,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7283,10 +7276,10 @@
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
@@ -7297,10 +7290,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7323,16 +7316,16 @@
         <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7382,7 +7375,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7403,10 +7396,10 @@
         <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
@@ -7417,10 +7410,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7443,19 +7436,19 @@
         <v>92</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="O44" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -7492,19 +7485,19 @@
         <v>20</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7525,10 +7518,10 @@
         <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
@@ -7539,10 +7532,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7565,13 +7558,13 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7622,7 +7615,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7646,7 +7639,7 @@
         <v>20</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>20</v>
@@ -7657,10 +7650,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7689,7 +7682,7 @@
         <v>138</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>140</v>
@@ -7742,7 +7735,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7766,7 +7759,7 @@
         <v>20</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>20</v>
@@ -7777,14 +7770,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7806,10 +7799,10 @@
         <v>137</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>140</v>
@@ -7864,7 +7857,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7899,10 +7892,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7925,19 +7918,19 @@
         <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
@@ -7962,13 +7955,13 @@
         <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>20</v>
@@ -7986,7 +7979,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>91</v>
@@ -8004,16 +7997,16 @@
         <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>20</v>
@@ -8021,10 +8014,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8047,19 +8040,19 @@
         <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>20</v>
@@ -8108,7 +8101,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8126,27 +8119,27 @@
         <v>20</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8169,19 +8162,19 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>20</v>
@@ -8206,13 +8199,13 @@
         <v>20</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>20</v>
@@ -8230,7 +8223,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8239,7 +8232,7 @@
         <v>91</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>103</v>
@@ -8254,7 +8247,7 @@
         <v>134</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>20</v>
@@ -8265,14 +8258,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8291,19 +8284,19 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -8328,13 +8321,13 @@
         <v>20</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>20</v>
@@ -8352,7 +8345,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8370,27 +8363,27 @@
         <v>20</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP51" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP51" t="s" s="2">
-        <v>297</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8416,16 +8409,16 @@
         <v>82</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -8474,7 +8467,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8495,10 +8488,10 @@
         <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>20</v>
@@ -8509,13 +8502,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>20</v>
@@ -8537,19 +8530,19 @@
         <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="O53" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -8598,7 +8591,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8619,10 +8612,10 @@
         <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>20</v>
@@ -8633,10 +8626,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8659,13 +8652,13 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8716,7 +8709,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8740,7 +8733,7 @@
         <v>20</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>20</v>
@@ -8751,10 +8744,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8783,7 +8776,7 @@
         <v>138</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>140</v>
@@ -8836,7 +8829,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8860,7 +8853,7 @@
         <v>20</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>20</v>
@@ -8871,14 +8864,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8900,10 +8893,10 @@
         <v>137</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>140</v>
@@ -8958,7 +8951,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8993,10 +8986,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9019,19 +9012,19 @@
         <v>92</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>20</v>
@@ -9041,7 +9034,7 @@
         <v>20</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>20</v>
@@ -9056,13 +9049,13 @@
         <v>20</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>20</v>
@@ -9080,7 +9073,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>91</v>
@@ -9098,16 +9091,16 @@
         <v>20</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="AM57" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AO57" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>20</v>
@@ -9115,10 +9108,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9141,19 +9134,19 @@
         <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>20</v>
@@ -9178,11 +9171,11 @@
         <v>20</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Y58" s="2"/>
       <c r="Z58" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>20</v>
@@ -9200,7 +9193,7 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9218,27 +9211,27 @@
         <v>20</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9261,19 +9254,19 @@
         <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>20</v>
@@ -9298,13 +9291,13 @@
         <v>20</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>20</v>
@@ -9322,7 +9315,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9331,7 +9324,7 @@
         <v>91</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>103</v>
@@ -9346,7 +9339,7 @@
         <v>134</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>20</v>
@@ -9357,14 +9350,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9383,19 +9376,19 @@
         <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>20</v>
@@ -9420,13 +9413,13 @@
         <v>20</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>20</v>
@@ -9444,7 +9437,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9462,27 +9455,27 @@
         <v>20</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP60" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>297</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9508,16 +9501,16 @@
         <v>82</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>20</v>
@@ -9566,7 +9559,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9587,10 +9580,10 @@
         <v>20</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>20</v>
@@ -9601,13 +9594,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>20</v>
@@ -9629,19 +9622,19 @@
         <v>92</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="O62" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>20</v>
@@ -9690,7 +9683,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9711,10 +9704,10 @@
         <v>20</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>20</v>
@@ -9725,10 +9718,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9751,13 +9744,13 @@
         <v>20</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9808,7 +9801,7 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9832,7 +9825,7 @@
         <v>20</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>20</v>
@@ -9843,10 +9836,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9875,7 +9868,7 @@
         <v>138</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>140</v>
@@ -9928,7 +9921,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9952,7 +9945,7 @@
         <v>20</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>20</v>
@@ -9963,14 +9956,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9992,10 +9985,10 @@
         <v>137</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>140</v>
@@ -10050,7 +10043,7 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10085,10 +10078,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10111,19 +10104,19 @@
         <v>92</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>20</v>
@@ -10133,7 +10126,7 @@
         <v>20</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>20</v>
@@ -10148,13 +10141,13 @@
         <v>20</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>20</v>
@@ -10172,7 +10165,7 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>91</v>
@@ -10190,16 +10183,16 @@
         <v>20</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="AM66" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AO66" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>20</v>
@@ -10207,10 +10200,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10233,19 +10226,19 @@
         <v>92</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>20</v>
@@ -10294,7 +10287,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10312,27 +10305,27 @@
         <v>20</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10355,13 +10348,13 @@
         <v>20</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10412,7 +10405,7 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10436,7 +10429,7 @@
         <v>20</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>20</v>
@@ -10447,10 +10440,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10479,7 +10472,7 @@
         <v>138</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>140</v>
@@ -10520,19 +10513,19 @@
         <v>20</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10556,7 +10549,7 @@
         <v>20</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>20</v>
@@ -10567,10 +10560,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10593,19 +10586,19 @@
         <v>92</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N70" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>20</v>
@@ -10654,7 +10647,7 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10675,10 +10668,10 @@
         <v>20</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>20</v>
@@ -10689,10 +10682,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10718,65 +10711,65 @@
         <v>111</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="P71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q71" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="Z71" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="P71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q71" t="s" s="2">
+      <c r="AA71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF71" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10797,10 +10790,10 @@
         <v>20</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>20</v>
@@ -10811,10 +10804,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10837,17 +10830,17 @@
         <v>92</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>20</v>
@@ -10896,7 +10889,7 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10917,10 +10910,10 @@
         <v>20</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>20</v>
@@ -10931,10 +10924,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10960,14 +10953,14 @@
         <v>105</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>20</v>
@@ -10977,7 +10970,7 @@
         <v>20</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>20</v>
@@ -11016,7 +11009,7 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11025,7 +11018,7 @@
         <v>91</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>103</v>
@@ -11037,10 +11030,10 @@
         <v>20</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>20</v>
@@ -11051,10 +11044,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11080,16 +11073,16 @@
         <v>111</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="O74" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>20</v>
@@ -11099,7 +11092,7 @@
         <v>20</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>20</v>
@@ -11138,7 +11131,7 @@
         <v>20</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11159,10 +11152,10 @@
         <v>20</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>20</v>
@@ -11173,10 +11166,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11199,19 +11192,19 @@
         <v>20</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>20</v>
@@ -11236,13 +11229,13 @@
         <v>20</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>20</v>
@@ -11260,7 +11253,7 @@
         <v>20</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11269,7 +11262,7 @@
         <v>91</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>103</v>
@@ -11284,7 +11277,7 @@
         <v>134</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>20</v>
@@ -11295,14 +11288,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11321,19 +11314,19 @@
         <v>20</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>20</v>
@@ -11358,13 +11351,13 @@
         <v>20</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>20</v>
@@ -11382,7 +11375,7 @@
         <v>20</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11400,27 +11393,27 @@
         <v>20</v>
       </c>
       <c r="AL76" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP76" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP76" t="s" s="2">
-        <v>297</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11446,16 +11439,16 @@
         <v>82</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>20</v>
@@ -11504,7 +11497,7 @@
         <v>20</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11525,10 +11518,10 @@
         <v>20</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>20</v>
@@ -11539,13 +11532,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>20</v>
@@ -11567,19 +11560,19 @@
         <v>92</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="O78" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>20</v>
@@ -11628,7 +11621,7 @@
         <v>20</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11649,10 +11642,10 @@
         <v>20</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>20</v>
@@ -11663,10 +11656,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11689,13 +11682,13 @@
         <v>20</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11746,7 +11739,7 @@
         <v>20</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11770,7 +11763,7 @@
         <v>20</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>20</v>
@@ -11781,10 +11774,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11813,7 +11806,7 @@
         <v>138</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="N80" t="s" s="2">
         <v>140</v>
@@ -11866,7 +11859,7 @@
         <v>20</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11890,7 +11883,7 @@
         <v>20</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>20</v>
@@ -11901,14 +11894,14 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11930,10 +11923,10 @@
         <v>137</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="N81" t="s" s="2">
         <v>140</v>
@@ -11988,7 +11981,7 @@
         <v>20</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12023,10 +12016,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12049,19 +12042,19 @@
         <v>92</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>20</v>
@@ -12071,7 +12064,7 @@
         <v>20</v>
       </c>
       <c r="S82" t="s" s="2">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="T82" t="s" s="2">
         <v>20</v>
@@ -12086,13 +12079,13 @@
         <v>20</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>20</v>
@@ -12110,7 +12103,7 @@
         <v>20</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>91</v>
@@ -12128,16 +12121,16 @@
         <v>20</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="AM82" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AO82" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>20</v>
@@ -12145,10 +12138,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12171,19 +12164,19 @@
         <v>92</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>20</v>
@@ -12208,11 +12201,11 @@
         <v>20</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Y83" s="2"/>
       <c r="Z83" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>20</v>
@@ -12230,7 +12223,7 @@
         <v>20</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12248,27 +12241,27 @@
         <v>20</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12291,19 +12284,19 @@
         <v>20</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>20</v>
@@ -12328,13 +12321,13 @@
         <v>20</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>20</v>
@@ -12352,7 +12345,7 @@
         <v>20</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12361,7 +12354,7 @@
         <v>91</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>103</v>
@@ -12376,7 +12369,7 @@
         <v>134</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>20</v>
@@ -12387,14 +12380,14 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12413,19 +12406,19 @@
         <v>20</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>20</v>
@@ -12450,13 +12443,13 @@
         <v>20</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>20</v>
@@ -12474,7 +12467,7 @@
         <v>20</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12492,27 +12485,27 @@
         <v>20</v>
       </c>
       <c r="AL85" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP85" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP85" t="s" s="2">
-        <v>297</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12538,16 +12531,16 @@
         <v>82</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>20</v>
@@ -12596,7 +12589,7 @@
         <v>20</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12617,10 +12610,10 @@
         <v>20</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>20</v>
@@ -12631,13 +12624,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D87" t="s" s="2">
         <v>20</v>
@@ -12659,19 +12652,19 @@
         <v>92</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="O87" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>20</v>
@@ -12720,7 +12713,7 @@
         <v>20</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12741,10 +12734,10 @@
         <v>20</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>20</v>
@@ -12755,10 +12748,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12781,13 +12774,13 @@
         <v>20</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12838,7 +12831,7 @@
         <v>20</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12862,7 +12855,7 @@
         <v>20</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>20</v>
@@ -12873,10 +12866,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12905,7 +12898,7 @@
         <v>138</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="N89" t="s" s="2">
         <v>140</v>
@@ -12958,7 +12951,7 @@
         <v>20</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -12982,7 +12975,7 @@
         <v>20</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>20</v>
@@ -12993,14 +12986,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -13022,10 +13015,10 @@
         <v>137</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="N90" t="s" s="2">
         <v>140</v>
@@ -13080,7 +13073,7 @@
         <v>20</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13115,10 +13108,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13141,19 +13134,19 @@
         <v>92</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>20</v>
@@ -13163,7 +13156,7 @@
         <v>20</v>
       </c>
       <c r="S91" t="s" s="2">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="T91" t="s" s="2">
         <v>20</v>
@@ -13178,13 +13171,13 @@
         <v>20</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>20</v>
@@ -13202,7 +13195,7 @@
         <v>20</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>91</v>
@@ -13220,16 +13213,16 @@
         <v>20</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="AM91" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AO91" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>20</v>
@@ -13237,10 +13230,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13263,19 +13256,19 @@
         <v>92</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>20</v>
@@ -13300,11 +13293,11 @@
         <v>20</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Y92" s="2"/>
       <c r="Z92" t="s" s="2">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>20</v>
@@ -13322,7 +13315,7 @@
         <v>20</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13340,27 +13333,27 @@
         <v>20</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13383,19 +13376,19 @@
         <v>20</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>20</v>
@@ -13420,13 +13413,13 @@
         <v>20</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>20</v>
@@ -13444,7 +13437,7 @@
         <v>20</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13453,7 +13446,7 @@
         <v>91</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>103</v>
@@ -13468,7 +13461,7 @@
         <v>134</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>20</v>
@@ -13479,14 +13472,14 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13505,19 +13498,19 @@
         <v>20</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>20</v>
@@ -13542,13 +13535,13 @@
         <v>20</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>20</v>
@@ -13566,7 +13559,7 @@
         <v>20</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13584,27 +13577,27 @@
         <v>20</v>
       </c>
       <c r="AL94" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP94" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AO94" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP94" t="s" s="2">
-        <v>297</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13630,16 +13623,16 @@
         <v>82</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>20</v>
@@ -13688,7 +13681,7 @@
         <v>20</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13709,10 +13702,10 @@
         <v>20</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>20</v>
@@ -13723,13 +13716,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>20</v>
@@ -13751,19 +13744,19 @@
         <v>92</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="O96" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>20</v>
@@ -13812,7 +13805,7 @@
         <v>20</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -13833,10 +13826,10 @@
         <v>20</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>20</v>
@@ -13847,10 +13840,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13873,13 +13866,13 @@
         <v>20</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13930,7 +13923,7 @@
         <v>20</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -13954,7 +13947,7 @@
         <v>20</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>20</v>
@@ -13965,10 +13958,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13997,7 +13990,7 @@
         <v>138</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="N98" t="s" s="2">
         <v>140</v>
@@ -14050,7 +14043,7 @@
         <v>20</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14074,7 +14067,7 @@
         <v>20</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>20</v>
@@ -14085,14 +14078,14 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -14114,10 +14107,10 @@
         <v>137</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="N99" t="s" s="2">
         <v>140</v>
@@ -14172,7 +14165,7 @@
         <v>20</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14207,10 +14200,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14233,19 +14226,19 @@
         <v>92</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>20</v>
@@ -14255,7 +14248,7 @@
         <v>20</v>
       </c>
       <c r="S100" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="T100" t="s" s="2">
         <v>20</v>
@@ -14270,13 +14263,13 @@
         <v>20</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>20</v>
@@ -14294,7 +14287,7 @@
         <v>20</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>91</v>
@@ -14312,16 +14305,16 @@
         <v>20</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="AM100" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AO100" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AO100" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AP100" t="s" s="2">
         <v>20</v>
@@ -14329,10 +14322,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14355,19 +14348,19 @@
         <v>92</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>20</v>
@@ -14392,11 +14385,11 @@
         <v>20</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Y101" s="2"/>
       <c r="Z101" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>20</v>
@@ -14414,7 +14407,7 @@
         <v>20</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14432,27 +14425,27 @@
         <v>20</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP101" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14475,19 +14468,19 @@
         <v>20</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>20</v>
@@ -14512,13 +14505,13 @@
         <v>20</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>20</v>
@@ -14536,7 +14529,7 @@
         <v>20</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14545,7 +14538,7 @@
         <v>91</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>103</v>
@@ -14560,7 +14553,7 @@
         <v>134</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>20</v>
@@ -14571,14 +14564,14 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14597,19 +14590,19 @@
         <v>20</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>20</v>
@@ -14634,13 +14627,13 @@
         <v>20</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>20</v>
@@ -14658,7 +14651,7 @@
         <v>20</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14676,27 +14669,27 @@
         <v>20</v>
       </c>
       <c r="AL103" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP103" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AO103" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP103" t="s" s="2">
-        <v>297</v>
       </c>
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14722,16 +14715,16 @@
         <v>82</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>20</v>
@@ -14780,7 +14773,7 @@
         <v>20</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14801,10 +14794,10 @@
         <v>20</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>20</v>
@@ -14815,13 +14808,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>20</v>
@@ -14843,19 +14836,19 @@
         <v>92</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L105" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="O105" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>20</v>
@@ -14904,7 +14897,7 @@
         <v>20</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -14925,10 +14918,10 @@
         <v>20</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>20</v>
@@ -14939,10 +14932,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14965,13 +14958,13 @@
         <v>20</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -15022,7 +15015,7 @@
         <v>20</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15046,7 +15039,7 @@
         <v>20</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>20</v>
@@ -15057,10 +15050,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15089,7 +15082,7 @@
         <v>138</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="N107" t="s" s="2">
         <v>140</v>
@@ -15142,7 +15135,7 @@
         <v>20</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15166,7 +15159,7 @@
         <v>20</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>20</v>
@@ -15177,14 +15170,14 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -15206,10 +15199,10 @@
         <v>137</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="N108" t="s" s="2">
         <v>140</v>
@@ -15264,7 +15257,7 @@
         <v>20</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15299,10 +15292,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15325,19 +15318,19 @@
         <v>92</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>20</v>
@@ -15347,7 +15340,7 @@
         <v>20</v>
       </c>
       <c r="S109" t="s" s="2">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="T109" t="s" s="2">
         <v>20</v>
@@ -15362,13 +15355,13 @@
         <v>20</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>20</v>
@@ -15386,7 +15379,7 @@
         <v>20</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>91</v>
@@ -15404,16 +15397,16 @@
         <v>20</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="AM109" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AO109" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AO109" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AP109" t="s" s="2">
         <v>20</v>
@@ -15421,10 +15414,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15447,19 +15440,19 @@
         <v>92</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>20</v>
@@ -15484,11 +15477,11 @@
         <v>20</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Y110" s="2"/>
       <c r="Z110" t="s" s="2">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>20</v>
@@ -15506,7 +15499,7 @@
         <v>20</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15524,27 +15517,27 @@
         <v>20</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP110" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15567,19 +15560,19 @@
         <v>20</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>20</v>
@@ -15604,13 +15597,13 @@
         <v>20</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>20</v>
@@ -15628,7 +15621,7 @@
         <v>20</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -15637,7 +15630,7 @@
         <v>91</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>103</v>
@@ -15652,7 +15645,7 @@
         <v>134</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>20</v>
@@ -15663,14 +15656,14 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -15689,19 +15682,19 @@
         <v>20</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>20</v>
@@ -15726,13 +15719,13 @@
         <v>20</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>20</v>
@@ -15750,7 +15743,7 @@
         <v>20</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -15768,27 +15761,27 @@
         <v>20</v>
       </c>
       <c r="AL112" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AO112" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP112" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AO112" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP112" t="s" s="2">
-        <v>297</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15814,16 +15807,16 @@
         <v>82</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>20</v>
@@ -15872,7 +15865,7 @@
         <v>20</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -15893,10 +15886,10 @@
         <v>20</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>20</v>
@@ -15907,13 +15900,13 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D114" t="s" s="2">
         <v>20</v>
@@ -15935,19 +15928,19 @@
         <v>92</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L114" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="O114" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>20</v>
@@ -15996,7 +15989,7 @@
         <v>20</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16017,10 +16010,10 @@
         <v>20</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>20</v>
@@ -16031,10 +16024,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16057,13 +16050,13 @@
         <v>20</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -16114,7 +16107,7 @@
         <v>20</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16138,7 +16131,7 @@
         <v>20</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>20</v>
@@ -16149,10 +16142,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16181,7 +16174,7 @@
         <v>138</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="N116" t="s" s="2">
         <v>140</v>
@@ -16234,7 +16227,7 @@
         <v>20</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16258,7 +16251,7 @@
         <v>20</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>20</v>
@@ -16269,14 +16262,14 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
@@ -16298,10 +16291,10 @@
         <v>137</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="N117" t="s" s="2">
         <v>140</v>
@@ -16356,7 +16349,7 @@
         <v>20</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16391,10 +16384,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16417,19 +16410,19 @@
         <v>92</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>20</v>
@@ -16439,7 +16432,7 @@
         <v>20</v>
       </c>
       <c r="S118" t="s" s="2">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="T118" t="s" s="2">
         <v>20</v>
@@ -16454,13 +16447,13 @@
         <v>20</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="Z118" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AA118" t="s" s="2">
         <v>20</v>
@@ -16478,7 +16471,7 @@
         <v>20</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>91</v>
@@ -16496,16 +16489,16 @@
         <v>20</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="AM118" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AN118" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AO118" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AO118" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AP118" t="s" s="2">
         <v>20</v>
@@ -16513,10 +16506,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16539,19 +16532,19 @@
         <v>92</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="O119" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>20</v>
@@ -16576,11 +16569,11 @@
         <v>20</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Y119" s="2"/>
       <c r="Z119" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>20</v>
@@ -16598,7 +16591,7 @@
         <v>20</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -16616,27 +16609,27 @@
         <v>20</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP119" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16659,19 +16652,19 @@
         <v>20</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>20</v>
@@ -16696,13 +16689,13 @@
         <v>20</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>20</v>
@@ -16720,7 +16713,7 @@
         <v>20</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -16729,7 +16722,7 @@
         <v>91</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>103</v>
@@ -16744,7 +16737,7 @@
         <v>134</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>20</v>
@@ -16755,14 +16748,14 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -16781,19 +16774,19 @@
         <v>20</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>20</v>
@@ -16818,13 +16811,13 @@
         <v>20</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>20</v>
@@ -16842,7 +16835,7 @@
         <v>20</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -16860,27 +16853,27 @@
         <v>20</v>
       </c>
       <c r="AL121" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AM121" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AN121" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AO121" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP121" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AM121" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AN121" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AO121" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP121" t="s" s="2">
-        <v>297</v>
       </c>
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16906,16 +16899,16 @@
         <v>82</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>20</v>
@@ -16964,7 +16957,7 @@
         <v>20</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -16985,10 +16978,10 @@
         <v>20</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-onconova-lifestyle.xlsx
+++ b/StructureDefinition-onconova-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:58:04+00:00</t>
+    <t>2025-11-24T08:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-lifestyle.xlsx
+++ b/StructureDefinition-onconova-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:04:46+00:00</t>
+    <t>2025-11-24T08:19:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-lifestyle.xlsx
+++ b/StructureDefinition-onconova-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:19:06+00:00</t>
+    <t>2025-11-24T08:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-lifestyle.xlsx
+++ b/StructureDefinition-onconova-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:55:00+00:00</t>
+    <t>2025-11-24T09:24:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-lifestyle.xlsx
+++ b/StructureDefinition-onconova-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T09:24:28+00:00</t>
+    <t>2025-11-24T11:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-lifestyle.xlsx
+++ b/StructureDefinition-onconova-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T11:19:41+00:00</t>
+    <t>2025-11-25T07:35:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-lifestyle.xlsx
+++ b/StructureDefinition-onconova-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T07:35:44+00:00</t>
+    <t>2025-11-25T10:34:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-lifestyle.xlsx
+++ b/StructureDefinition-onconova-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T10:34:25+00:00</t>
+    <t>2025-11-27T10:13:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-lifestyle.xlsx
+++ b/StructureDefinition-onconova-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T10:13:46+00:00</t>
+    <t>2025-11-27T13:06:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-lifestyle.xlsx
+++ b/StructureDefinition-onconova-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T13:06:44+00:00</t>
+    <t>2025-12-04T06:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-lifestyle.xlsx
+++ b/StructureDefinition-onconova-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:29:30+00:00</t>
+    <t>2025-12-04T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -279,7 +279,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}o-lif-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-lif-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}o-lif-req-1:The subject element is required and must be provided. {subject.exists()}o-lif-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/StructureDefinition-onconova-lifestyle.xlsx
+++ b/StructureDefinition-onconova-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:46:00+00:00</t>
+    <t>2025-12-04T07:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-lifestyle.xlsx
+++ b/StructureDefinition-onconova-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T07:07:35+00:00</t>
+    <t>2025-12-04T10:18:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-lifestyle.xlsx
+++ b/StructureDefinition-onconova-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:18:27+00:00</t>
+    <t>2025-12-04T10:59:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-lifestyle.xlsx
+++ b/StructureDefinition-onconova-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:59:28+00:00</t>
+    <t>2026-02-25T14:29:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-lifestyle.xlsx
+++ b/StructureDefinition-onconova-lifestyle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T14:29:35+00:00</t>
+    <t>2026-02-25T15:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
